--- a/FoundData/CzechiaDataInvestigation.xlsx
+++ b/FoundData/CzechiaDataInvestigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70912773-6111-AC4A-A0DC-06148DAAD2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E179926F-B610-8944-A8BA-C6E5DABA1E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{A076DB97-235A-774F-A2FC-CF24BAD00192}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="112">
   <si>
     <t>Country</t>
   </si>
@@ -107,9 +107,6 @@
     <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1999 as the Czech Statoscal office but it is just about million off of one another. Considering the population is around 29 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has . </t>
   </si>
   <si>
-    <t>NEED TO FIX ALL THE REASONINGS</t>
-  </si>
-  <si>
     <t>1993-2017</t>
   </si>
   <si>
@@ -252,6 +249,129 @@
   </si>
   <si>
     <t>FAOSTAT and WOAH have reporting a relatively stable cattle population over this time. A reason it could be remaining stable is because increased efficiency over this time. Czechs have reduced cost per liter of milk and government subsidies have allowed the population of cattle to stabilize while increasing milk yields. Knoema has corroborated this by showing that milk yields have increased over the same time period which would make sense when read in context with the Milchtrends document which outlines how the Czechians have been working to make the farms more efficient with the same resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nmq</t>
+  </si>
+  <si>
+    <t>Chickens, Cattle, Pigs</t>
+  </si>
+  <si>
+    <t>In 2002, Czechia had many of it's main rivers overflow their banks due to record rainfall. Some saw once in 1000 year floods. 15 people died and billions of euros in damages occurred. Given this much damage occurred, we would expect to see it impact livestock since humans often settle around rivers and farm around rivers for access to water. For chickens, cattle, and pigs, we see a decrease in populations for this year. However, this decrease in population is part of a larger trend so it cannot be easily determined if the flooding had a large effect on the population.</t>
+  </si>
+  <si>
+    <t>In 2002, Czechia had many of it's main rivers overflow their banks due to record rainfall. Some saw once in 1000 year floods. 15 people died and billions of euros in damages occurred. While many rivers did flood, we don't expect to see this impact the sheep population as much of the time sheep farming occurs on hill sides as they are adapted to uneven terrain and flat terrain is often saved for other livestock. So given this information, we would expect to see almost no impact to the sheep population given their distance from the danger area. When looking at FAOSTAT data we see the population increase for this time. So FAOSTATs data make's sense for this time period.</t>
+  </si>
+  <si>
+    <t>https://ui.adsabs.harvard.edu/abs/2003EAEJA....12404S/abstract#:~:text=The%20flood%20caused%20enormous%20damage,their%20houses%2C%2015%20people%20died.</t>
+  </si>
+  <si>
+    <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect this to negativly impact the cattle population since cattle are often farmed in low lying areas near water. FAOSTAT shows the cattle population declining this year. However, the decline was part of a larger trend so this decline could have been from other factors.</t>
+  </si>
+  <si>
+    <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect this to negativly impact the chicken population since chickens cannot float during floods and are often grown in low lying areas with access to water. We see the population drop this year despite being in an overall upward trend so this is strong evidence that FAOSTAT has good data for this year.</t>
+  </si>
+  <si>
+    <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect this to negativly impact the pig population since cattle are often farmed in low lying areas near water. FAOSTAT shows the pig population declining this year. However, the decline was part of a larger trend so this decline could have been from other factors.</t>
+  </si>
+  <si>
+    <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect to see little impact on the sheep population since sheep are usually farmed on hillsides since they are well adapted to it taking them out of the danger of flooding. The sheep population declines this year but was already on a declining trend for this time period.</t>
+  </si>
+  <si>
+    <t>https://medium.com/@maks_duberman/flood-in-europe-czech-republic-poland-germany-1997-818bf5f53f8b</t>
+  </si>
+  <si>
+    <t>Chickens, Pigs, Cattle</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Czechia has been moving from livestock farming to farming cereals and oilseeds. Given this information, we should see it push down livestock populations over time. Looking at FAOSTAT data, we see this trend occuring in the long term view of the data</t>
+  </si>
+  <si>
+    <t>Czechia has been moving from livestock farming to farming cereals and oilseeds. Given this information, we should see it push down livestock populations over time. Looking at FAOSTAT data, we see the population of sheep actually climbing over time. This could be because sheep are often farmed on hilsides and uneven terrain since sheep can handle this well and it's not feasable to grow crops in terrain like this. So the FAOSTAT data makes sense given this hypothesis.</t>
+  </si>
+  <si>
+    <t>https://www.osw.waw.pl/sites/default/files/OSW-Report_Drought-in-the-Czech-Republic_net.pdf</t>
+  </si>
+  <si>
+    <t>2013-2020</t>
+  </si>
+  <si>
+    <t>Since 2013, Czechia has experience drought causing billions of dollars in lost revanue for farmers in the country. Given the drought is a once in 500 year drought and it's been going on for son long, we would expect to see it negatively impact the livestock population for the region. For all species studied and for both FAOSTAT and WOAH we see livestock populations stagnate between 2013 and 2020. This is good evidence that the sources are showing the pressure and negative effects of the drought on the livestock of Czechia.</t>
+  </si>
+  <si>
+    <t>In 2003, Czechia, along with central Europe, faced a severe drought. As a result of this drought we would expect to see a drop or stagnation in livestock numbers due to reduced water and reduced plant growth used for feeding the livestock. For cattle, chickens, and pigs we see the populations decrease for this year. However, the populations were already on a downward trend for this period so it cannot be determined how much of an impact that the drought had on the livestock</t>
+  </si>
+  <si>
+    <t>In 2003, Czechia, along with central Europe, faced a severe drought. As a result of this drought we would expect to see a drop or stagnation in the sheep population due to reduced water and reduced plant growth used for feeding the livestock. However, we see the sheep population increase for this year. It is part of a larger trend of increasing sheep population in Czechia in the 2000s. There is not even a decelerating increase in population for this year despite all other studied livestock showing decreasing populations for this year.</t>
+  </si>
+  <si>
+    <t>https://english.radio.cz/2003-driest-year-recent-memory-czech-republic-8081175</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/289834660_Forest_fires_and_their_causes_in_the_Czech_Republic_1992-2004</t>
+  </si>
+  <si>
+    <t>Between 1992-2004, there was 15,985 forest fires with a total area burned equal to just over 78km squared. This means the average fire was very small, and they often burned them selves out causing minimal danger to farms and farm animals. So a reasonable conclusion would be that there was little impact on livestock in Czechia over the 12 year period so there should not be any noticable impact on the population reported by FAOSTAT or WOAH.</t>
+  </si>
+  <si>
+    <t>1993-1994</t>
+  </si>
+  <si>
+    <t>In 1993, Czechia split from Slovakia to become its own country. The split was refered to as the velvet Divorce for how smooth it was was much more rough the the Czech economy than people give it credit. There was rampant inflaction and Czechia only managed to get it below 9% in 1995. Given this uncertainty people were feeling in the economy and rapidly increasing prices of imputs for farming, the drop in 1994 for livestock population numbers is realistic.</t>
+  </si>
+  <si>
+    <t>https://www.wto.org/english/tratop_e/tpr_e/tp029_e.htm</t>
+  </si>
+  <si>
+    <t>Chickens, Pigs</t>
+  </si>
+  <si>
+    <t>1995-1997</t>
+  </si>
+  <si>
+    <t>In 1995, Czechia was reducing its inflation as well as joined the Organization for Economic Co-operation and Development (OECD). Joining the OECD allows a country to acceess better data and research, Networking and cooporative relationships, enhanced credability, access to funding and technical assistence, and better trade and investment opportunities. So we would expect to see a increase in animal population numbers given the decrease in inflation that farmers were facing and the opportunity for better trade and collaboration from the OECD. FAOSTAT shows an increase in the chicken and pig population after this time which appears plausible given the economic conditions.</t>
+  </si>
+  <si>
+    <t>In 1995, Czechia was reducing its inflation as well as joined the Organization for Economic Co-operation and Development (OECD). Joining the OECD allows a country to acceess better data and research, Networking and cooporative relationships, enhanced credability, access to funding and technical assistence, and better trade and investment opportunities. So we would expect to see a increase in animal population numbers given the decrease in inflation that farmers were facing and the opportunity for better trade and collaboration from the OECD. FAOSTAT shows andecrease in the cattle and sheep population after this time which appears implausible given the economic conditions. However, the decrease in the population numbers is part of a larger decreasing trend so there is mostly likely other external factors causing this.</t>
+  </si>
+  <si>
+    <t>https://www.oecd.org/czechia/czechia-and-oecd.htm#:~:text=Czechia%20signed%20the%20Convention%20founding,achieving%20the%20Organisation%27s%20fundamental%20aims., https://www.wto.org/english/tratop_e/tpr_e/tp029_e.htm</t>
+  </si>
+  <si>
+    <t>2009-2010</t>
+  </si>
+  <si>
+    <t>In 2009 through 2010, Czechia entered a recession defined by a shrinking in their GDP. Given that people tend to cut back during recessions due to increased uncertainty in the market. As a result we should see reduce livestock population as consumers buy less meat as it's typically a more expensive grocery item. FAOSTAT shows a slight decrease during these years.</t>
+  </si>
+  <si>
+    <t>https://www.imf.org/external/datamapper/NGDPD@WEO/CZE?zoom=CZE&amp;highlight=CZE</t>
+  </si>
+  <si>
+    <t>In 2009 through 2010, Czechia entered a recession defined by a shrinking in their GDP. Given that people tend to cut back during recessions due to increased uncertainty in the market. As a result we should see reduce livestock population as consumers buy less meat as it's typically a more expensive grocery item. FAOSTAT shows a large decrease in the chicken population over this time period.</t>
+  </si>
+  <si>
+    <t>In 2009 through 2010, Czechia entered a recession defined by a shrinking in their GDP. Given that people tend to cut back during recessions due to increased uncertainty in the market. As a result we should see reduce livestock population as consumers buy less meat as it's typically a more expensive grocery item. FAOSTAT shows a decrease in the pig population this year, but it occured during a larger trend of decreasing pig population so it cannot be easily determined what impact the recession had on the pig population in Czechia.</t>
+  </si>
+  <si>
+    <t>In 2009 through 2010, Czechia entered a recession defined by a shrinking in their GDP. Given that people tend to cut back during recessions due to increased uncertainty in the market. As a result we should see reduce livestock population as consumers buy less meat as it's typically a more expensive grocery item. FAOSTAT shows an increase in the sheep population for this time. It was part of a larger trend of increasing sheep population but does not appear to increase at a slower rate than the previous years.</t>
+  </si>
+  <si>
+    <t>2014-2015</t>
+  </si>
+  <si>
+    <t>Between 2014 and 2015 Czechia faced another recession as the GDP dropped even lower. As a result of this we should expect to see decreased in the cattle population. For these years, FAOSTAT reports a slight increase in the cattle population. It's small enought to be considered statistically insignificant so the population was stagnent these years.</t>
+  </si>
+  <si>
+    <t>Between 2014 and 2015 Czechia faced another recession as the GDP dropped even lower. As a result of this we should expect to see decreased in the cattle population. For these years, FAOSTAT reports an increase in the chicken population for this year with a jump of more than 2 million or 10 percent. This is unlikely given the economic situation at the time.</t>
+  </si>
+  <si>
+    <t>Between 2014 and 2015 Czechia faced another recession as the GDP dropped even lower. As a result of this we should expect to see decreased in the cattle population. For these years, FAOSTAT reports a slight decrease in the pig population. The decrease was part of an overall decreasing population trend but does correlate with the economic uncertainty at the time.</t>
+  </si>
+  <si>
+    <t>Between 2014 and 2015 Czechia faced another recession as the GDP dropped even lower. As a result of this we should expect to see decreased in the cattle population. For these years, FAOSTAT reports an increase in the sheep population for this time. This is at the peak of the rise of the sheep population in Czechia so the economic conditions could have put pressure on the population but it is hard to tell in this situation.</t>
   </si>
 </sst>
 </file>
@@ -628,13 +748,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491FA7C7-AD9D-3949-A859-ACF624196E45}">
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="68" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -667,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -678,7 +801,7 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -883,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -906,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -929,14 +1052,12 @@
         <v>4.5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -955,7 +1076,7 @@
         <v>4.5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -978,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -995,13 +1116,13 @@
         <v>2005</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1">
         <v>4.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -1024,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -1047,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -1070,7 +1191,7 @@
         <v>4.5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1093,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -1116,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1139,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1162,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -1185,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -1208,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -1231,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -1254,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -1300,7 +1421,7 @@
         <v>1.5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1323,7 +1444,7 @@
         <v>1.5</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -1346,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -1363,13 +1484,13 @@
         <v>2019</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -1392,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -1409,13 +1530,13 @@
         <v>2006</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E34" s="1">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
@@ -1432,13 +1553,13 @@
         <v>2007</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
@@ -1455,13 +1576,13 @@
         <v>2008</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -1478,13 +1599,13 @@
         <v>2009</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1">
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -1501,13 +1622,13 @@
         <v>2010</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
@@ -1524,13 +1645,13 @@
         <v>2011</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
@@ -1547,13 +1668,13 @@
         <v>2012</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
@@ -1570,13 +1691,13 @@
         <v>2013</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -1593,13 +1714,13 @@
         <v>2014</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42" s="1">
         <v>4.5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -1616,13 +1737,13 @@
         <v>2015</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -1639,13 +1760,13 @@
         <v>2016</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -1662,13 +1783,13 @@
         <v>2017</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
@@ -1685,13 +1806,13 @@
         <v>2018</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -1708,13 +1829,13 @@
         <v>2019</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47" s="1">
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -1737,13 +1858,13 @@
         <v>4.5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -1760,13 +1881,13 @@
         <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -1783,329 +1904,332 @@
         <v>4.5</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
         <v>33</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1">
-        <v>5</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="1">
-        <v>5</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" s="1">
         <v>2007</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53" s="1">
         <v>5</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="1">
         <v>2008</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54" s="1">
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="1">
         <v>2009</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55" s="1">
         <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1">
         <v>2010</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E56" s="1">
         <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="T56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="1">
         <v>2011</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57" s="1">
         <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1">
         <v>2012</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="1">
         <v>2013</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1">
         <v>2014</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="1">
         <v>2015</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="1">
         <v>2016</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1">
         <v>2017</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="1">
         <v>2018</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
@@ -2116,19 +2240,19 @@
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" s="1">
         <v>2019</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
@@ -2139,22 +2263,22 @@
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" t="s">
         <v>40</v>
       </c>
-      <c r="C66" t="s">
-        <v>41</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66" s="1">
         <v>5</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2162,22 +2286,22 @@
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2188,19 +2312,19 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E68" s="1">
         <v>5</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2214,16 +2338,16 @@
         <v>2002</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2243,10 +2367,10 @@
         <v>5</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2266,10 +2390,10 @@
         <v>5</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2289,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2312,10 +2436,10 @@
         <v>4.5</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2335,10 +2459,10 @@
         <v>5</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2358,10 +2482,10 @@
         <v>5</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2381,10 +2505,10 @@
         <v>5</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2404,10 +2528,10 @@
         <v>5</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2427,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2450,10 +2574,10 @@
         <v>5</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2473,10 +2597,10 @@
         <v>5</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2496,10 +2620,10 @@
         <v>4.5</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2513,16 +2637,16 @@
         <v>2005</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82" s="1">
         <v>5</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2542,10 +2666,10 @@
         <v>5</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2565,10 +2689,10 @@
         <v>5</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2588,10 +2712,10 @@
         <v>4.5</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2611,10 +2735,10 @@
         <v>5</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2634,10 +2758,10 @@
         <v>5</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2657,10 +2781,10 @@
         <v>5</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2680,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2703,10 +2827,10 @@
         <v>5</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2726,10 +2850,10 @@
         <v>5</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2749,10 +2873,10 @@
         <v>5</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2772,10 +2896,10 @@
         <v>4.5</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2795,10 +2919,10 @@
         <v>4.5</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2818,10 +2942,10 @@
         <v>5</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2835,16 +2959,16 @@
         <v>2019</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E96" s="1">
         <v>5</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2864,10 +2988,10 @@
         <v>5</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2881,16 +3005,16 @@
         <v>2006</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E98" s="1">
         <v>4.5</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -2904,16 +3028,16 @@
         <v>2007</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E99" s="1">
         <v>5</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -2927,16 +3051,16 @@
         <v>2008</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E100" s="1">
         <v>4.5</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -2950,16 +3074,16 @@
         <v>2009</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E101" s="1">
         <v>5</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -2973,16 +3097,16 @@
         <v>2010</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E102" s="1">
         <v>4.5</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -2996,16 +3120,16 @@
         <v>2011</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1">
         <v>5</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3019,16 +3143,16 @@
         <v>2012</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E104" s="1">
         <v>4.5</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3042,16 +3166,16 @@
         <v>2013</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E105" s="1">
         <v>5</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3065,16 +3189,16 @@
         <v>2014</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E106" s="1">
         <v>4.5</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -3088,16 +3212,16 @@
         <v>2015</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E107" s="1">
         <v>5</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -3111,16 +3235,16 @@
         <v>2016</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E108" s="1">
         <v>5</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3134,16 +3258,16 @@
         <v>2017</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109" s="1">
         <v>5</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3151,7 +3275,7 @@
         <v>7</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C110">
         <v>2015</v>
@@ -3163,10 +3287,10 @@
         <v>4.5</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3174,22 +3298,22 @@
         <v>7</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C111" s="1">
         <v>2015</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E111" s="1">
         <v>3.5</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3197,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C112" s="1">
         <v>2019</v>
@@ -3209,10 +3333,10 @@
         <v>5</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3220,115 +3344,575 @@
         <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1">
         <v>2019</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="1">
+        <v>5</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G114" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="1">
+        <v>5</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G115" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="1">
+        <v>5</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G116" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="1">
+        <v>5</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G117" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="1">
+        <v>5</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G118" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1">
+        <v>5</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G119" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="1">
+        <v>5</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G120" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="1">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G121" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122" t="s">
+        <v>82</v>
+      </c>
+      <c r="E122" s="1">
+        <v>5</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G122" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123">
+        <v>2003</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="1">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G123" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124">
+        <v>2003</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="1">
+        <v>2</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G124" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" t="s">
+        <v>82</v>
+      </c>
+      <c r="D125" t="s">
+        <v>82</v>
+      </c>
+      <c r="E125" s="1">
+        <v>5</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G125" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" t="s">
+        <v>93</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="1">
+        <v>5</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="1">
+        <v>5</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G127" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G128" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>101</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="1">
+        <v>4</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G129" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>101</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="1">
+        <v>5</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G130" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>101</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G131" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>101</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G132" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>107</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G133" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>107</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G134" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>107</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="1">
+        <v>4</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G135" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" t="s">
+        <v>107</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="1">
+        <v>2</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G136" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
@@ -3377,6 +3961,8 @@
     <hyperlink ref="G68" r:id="rId1" xr:uid="{56BECF92-C82B-7448-AC58-56E95E861CE5}"/>
     <hyperlink ref="G67" r:id="rId2" xr:uid="{C3475321-AE7D-204E-9676-0EFD1201B11A}"/>
     <hyperlink ref="G66" r:id="rId3" xr:uid="{6381EF3D-862F-8140-BD20-6AC913E95711}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{8A27D6C1-0146-2C45-B498-87148AB1ADD5}"/>
+    <hyperlink ref="G126" r:id="rId5" xr:uid="{5CD1A7CD-457F-DC47-AFD1-17BBD664A4F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FoundData/CzechiaDataInvestigation.xlsx
+++ b/FoundData/CzechiaDataInvestigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E179926F-B610-8944-A8BA-C6E5DABA1E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724C185E-83F0-1E41-A513-1E5EE0B7EE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{A076DB97-235A-774F-A2FC-CF24BAD00192}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="111">
   <si>
     <t>Country</t>
   </si>
@@ -86,27 +86,6 @@
     <t>Chickens</t>
   </si>
   <si>
-    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1993 as the Czech Statoscal office but it is about on million off of one another. Considering the population is around 27-28 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1994 as the Czech Statoscal office but it is less than a million off of one another. Considering the population is around 24 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1995 as the Czech Statoscal office but it is just over a million off of one another. Considering the population is around 25-26 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1997 as the Czech Statoscal office but it is just about million, 250 thousand off of one another. Considering the population is around 27 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has  </t>
-  </si>
-  <si>
-    <t>FAOSTAT does not have the same population number for chickens in 1997 as the Czech Statoscal office but it is just about million, 250 thousand off of one another. Considering the population is around 27 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has . FAOSTAT and CSO also follow the same slight decline this year vs the last year which is also excellent evidence for FAOSTAT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1998 as the Czech Statoscal office but it is just about million, 250 thousand off of one another. Considering the population is around 29 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1999 as the Czech Statoscal office but it is just about million off of one another. Considering the population is around 29 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has . </t>
-  </si>
-  <si>
     <t>1993-2017</t>
   </si>
   <si>
@@ -122,12 +101,6 @@
     <t>WOAH</t>
   </si>
   <si>
-    <t>WOAH is only 50k Cattle off FAOSTAT and CZO which is very close</t>
-  </si>
-  <si>
-    <t>WOAH, FAOSTAT, and CZO have very similar population numbers for this year which is strong evidence that WOAH has good data for this year</t>
-  </si>
-  <si>
     <t>FAOSTAT and CZSO have similar data for this year but FAOSTAT has data that is &gt;50k Pigs off</t>
   </si>
   <si>
@@ -266,15 +239,6 @@
     <t>https://ui.adsabs.harvard.edu/abs/2003EAEJA....12404S/abstract#:~:text=The%20flood%20caused%20enormous%20damage,their%20houses%2C%2015%20people%20died.</t>
   </si>
   <si>
-    <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect this to negativly impact the cattle population since cattle are often farmed in low lying areas near water. FAOSTAT shows the cattle population declining this year. However, the decline was part of a larger trend so this decline could have been from other factors.</t>
-  </si>
-  <si>
-    <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect this to negativly impact the chicken population since chickens cannot float during floods and are often grown in low lying areas with access to water. We see the population drop this year despite being in an overall upward trend so this is strong evidence that FAOSTAT has good data for this year.</t>
-  </si>
-  <si>
-    <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect this to negativly impact the pig population since cattle are often farmed in low lying areas near water. FAOSTAT shows the pig population declining this year. However, the decline was part of a larger trend so this decline could have been from other factors.</t>
-  </si>
-  <si>
     <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect to see little impact on the sheep population since sheep are usually farmed on hillsides since they are well adapted to it taking them out of the danger of flooding. The sheep population declines this year but was already on a declining trend for this time period.</t>
   </si>
   <si>
@@ -287,21 +251,12 @@
     <t>All</t>
   </si>
   <si>
-    <t>Czechia has been moving from livestock farming to farming cereals and oilseeds. Given this information, we should see it push down livestock populations over time. Looking at FAOSTAT data, we see this trend occuring in the long term view of the data</t>
-  </si>
-  <si>
-    <t>Czechia has been moving from livestock farming to farming cereals and oilseeds. Given this information, we should see it push down livestock populations over time. Looking at FAOSTAT data, we see the population of sheep actually climbing over time. This could be because sheep are often farmed on hilsides and uneven terrain since sheep can handle this well and it's not feasable to grow crops in terrain like this. So the FAOSTAT data makes sense given this hypothesis.</t>
-  </si>
-  <si>
     <t>https://www.osw.waw.pl/sites/default/files/OSW-Report_Drought-in-the-Czech-Republic_net.pdf</t>
   </si>
   <si>
     <t>2013-2020</t>
   </si>
   <si>
-    <t>Since 2013, Czechia has experience drought causing billions of dollars in lost revanue for farmers in the country. Given the drought is a once in 500 year drought and it's been going on for son long, we would expect to see it negatively impact the livestock population for the region. For all species studied and for both FAOSTAT and WOAH we see livestock populations stagnate between 2013 and 2020. This is good evidence that the sources are showing the pressure and negative effects of the drought on the livestock of Czechia.</t>
-  </si>
-  <si>
     <t>In 2003, Czechia, along with central Europe, faced a severe drought. As a result of this drought we would expect to see a drop or stagnation in livestock numbers due to reduced water and reduced plant growth used for feeding the livestock. For cattle, chickens, and pigs we see the populations decrease for this year. However, the populations were already on a downward trend for this period so it cannot be determined how much of an impact that the drought had on the livestock</t>
   </si>
   <si>
@@ -314,15 +269,9 @@
     <t>https://www.researchgate.net/publication/289834660_Forest_fires_and_their_causes_in_the_Czech_Republic_1992-2004</t>
   </si>
   <si>
-    <t>Between 1992-2004, there was 15,985 forest fires with a total area burned equal to just over 78km squared. This means the average fire was very small, and they often burned them selves out causing minimal danger to farms and farm animals. So a reasonable conclusion would be that there was little impact on livestock in Czechia over the 12 year period so there should not be any noticable impact on the population reported by FAOSTAT or WOAH.</t>
-  </si>
-  <si>
     <t>1993-1994</t>
   </si>
   <si>
-    <t>In 1993, Czechia split from Slovakia to become its own country. The split was refered to as the velvet Divorce for how smooth it was was much more rough the the Czech economy than people give it credit. There was rampant inflaction and Czechia only managed to get it below 9% in 1995. Given this uncertainty people were feeling in the economy and rapidly increasing prices of imputs for farming, the drop in 1994 for livestock population numbers is realistic.</t>
-  </si>
-  <si>
     <t>https://www.wto.org/english/tratop_e/tpr_e/tp029_e.htm</t>
   </si>
   <si>
@@ -332,12 +281,6 @@
     <t>1995-1997</t>
   </si>
   <si>
-    <t>In 1995, Czechia was reducing its inflation as well as joined the Organization for Economic Co-operation and Development (OECD). Joining the OECD allows a country to acceess better data and research, Networking and cooporative relationships, enhanced credability, access to funding and technical assistence, and better trade and investment opportunities. So we would expect to see a increase in animal population numbers given the decrease in inflation that farmers were facing and the opportunity for better trade and collaboration from the OECD. FAOSTAT shows an increase in the chicken and pig population after this time which appears plausible given the economic conditions.</t>
-  </si>
-  <si>
-    <t>In 1995, Czechia was reducing its inflation as well as joined the Organization for Economic Co-operation and Development (OECD). Joining the OECD allows a country to acceess better data and research, Networking and cooporative relationships, enhanced credability, access to funding and technical assistence, and better trade and investment opportunities. So we would expect to see a increase in animal population numbers given the decrease in inflation that farmers were facing and the opportunity for better trade and collaboration from the OECD. FAOSTAT shows andecrease in the cattle and sheep population after this time which appears implausible given the economic conditions. However, the decrease in the population numbers is part of a larger decreasing trend so there is mostly likely other external factors causing this.</t>
-  </si>
-  <si>
     <t>https://www.oecd.org/czechia/czechia-and-oecd.htm#:~:text=Czechia%20signed%20the%20Convention%20founding,achieving%20the%20Organisation%27s%20fundamental%20aims., https://www.wto.org/english/tratop_e/tpr_e/tp029_e.htm</t>
   </si>
   <si>
@@ -353,18 +296,12 @@
     <t>In 2009 through 2010, Czechia entered a recession defined by a shrinking in their GDP. Given that people tend to cut back during recessions due to increased uncertainty in the market. As a result we should see reduce livestock population as consumers buy less meat as it's typically a more expensive grocery item. FAOSTAT shows a large decrease in the chicken population over this time period.</t>
   </si>
   <si>
-    <t>In 2009 through 2010, Czechia entered a recession defined by a shrinking in their GDP. Given that people tend to cut back during recessions due to increased uncertainty in the market. As a result we should see reduce livestock population as consumers buy less meat as it's typically a more expensive grocery item. FAOSTAT shows a decrease in the pig population this year, but it occured during a larger trend of decreasing pig population so it cannot be easily determined what impact the recession had on the pig population in Czechia.</t>
-  </si>
-  <si>
     <t>In 2009 through 2010, Czechia entered a recession defined by a shrinking in their GDP. Given that people tend to cut back during recessions due to increased uncertainty in the market. As a result we should see reduce livestock population as consumers buy less meat as it's typically a more expensive grocery item. FAOSTAT shows an increase in the sheep population for this time. It was part of a larger trend of increasing sheep population but does not appear to increase at a slower rate than the previous years.</t>
   </si>
   <si>
     <t>2014-2015</t>
   </si>
   <si>
-    <t>Between 2014 and 2015 Czechia faced another recession as the GDP dropped even lower. As a result of this we should expect to see decreased in the cattle population. For these years, FAOSTAT reports a slight increase in the cattle population. It's small enought to be considered statistically insignificant so the population was stagnent these years.</t>
-  </si>
-  <si>
     <t>Between 2014 and 2015 Czechia faced another recession as the GDP dropped even lower. As a result of this we should expect to see decreased in the cattle population. For these years, FAOSTAT reports an increase in the chicken population for this year with a jump of more than 2 million or 10 percent. This is unlikely given the economic situation at the time.</t>
   </si>
   <si>
@@ -372,6 +309,66 @@
   </si>
   <si>
     <t>Between 2014 and 2015 Czechia faced another recession as the GDP dropped even lower. As a result of this we should expect to see decreased in the cattle population. For these years, FAOSTAT reports an increase in the sheep population for this time. This is at the peak of the rise of the sheep population in Czechia so the economic conditions could have put pressure on the population but it is hard to tell in this situation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1993 as the Czech Statical office but it is about on million off of one another. Considering the population is around 27-28 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1994 as the Czech Statical office but it is less than a million off of one another. Considering the population is around 24 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1995 as the Czech Statical office but it is just over a million off of one another. Considering the population is around 25-26 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1997 as the Czech Statical office but it is just about million, 250 thousand off of one another. Considering the population is around 27 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has  </t>
+  </si>
+  <si>
+    <t>FAOSTAT does not have the same population number for chickens in 1997 as the Czech Statical office but it is just about million, 250 thousand off of one another. Considering the population is around 27 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has . FAOSTAT and CSO also follow the same slight decline this year vs the last year which is also excellent evidence for FAOSTAT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1998 as the Czech Statical office but it is just about million, 250 thousand off of one another. Considering the population is around 29 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT does not have the same population number for chickens in 1999 as the Czech Statical office but it is just about million off of one another. Considering the population is around 29 million this is a less than four percent difference so this is good evidence the exact chicken population is around what FAOSTAT has . </t>
+  </si>
+  <si>
+    <t>WOAH is only 50k Cattle off FAOSTAT and CZSO which is very close</t>
+  </si>
+  <si>
+    <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect this to negatively impact the cattle population since cattle are often farmed in low lying areas near water. FAOSTAT shows the cattle population declining this year. However, the decline was part of a larger trend so this decline could have been from other factors.</t>
+  </si>
+  <si>
+    <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect this to negatively impact the chicken population since chickens cannot float during floods and are often grown in low lying areas with access to water. We see the population drop this year despite being in an overall upward trend so this is strong evidence that FAOSTAT has good data for this year.</t>
+  </si>
+  <si>
+    <t>In 1997 Czechia saw a severe flood causing death and destruction across the country as the rivers overflowed and damaged the surrounding areas. We would expect this to negatively impact the pig population since cattle are often farmed in low lying areas near water. FAOSTAT shows the pig population declining this year. However, the decline was part of a larger trend so this decline could have been from other factors.</t>
+  </si>
+  <si>
+    <t>Czechia has been moving from livestock farming to farming cereals and oilseeds. Given this information, we should see it push down livestock populations over time. Looking at FAOSTAT data, we see this trend occurring in the long term view of the data</t>
+  </si>
+  <si>
+    <t>Czechia has been moving from livestock farming to farming cereals and oilseeds. Given this information, we should see it push down livestock populations over time. Looking at FAOSTAT data, we see the population of sheep actually climbing over time. This could be because sheep are often farmed on hillsides and uneven terrain since sheep can handle this well and it's not feasible to grow crops in terrain like this. So the FAOSTAT data makes sense given this hypothesis.</t>
+  </si>
+  <si>
+    <t>Since 2013, Czechia has experience drought causing billions of dollars in lost revenue for farmers in the country. Given the drought is a once in 500 year drought and it's been going on for son long, we would expect to see it negatively impact the livestock population for the region. For all species studied and for both FAOSTAT and WOAH we see livestock populations stagnate between 2013 and 2020. This is good evidence that the sources are showing the pressure and negative effects of the drought on the livestock of Czechia.</t>
+  </si>
+  <si>
+    <t>Between 1992-2004, there was 15,985 forest fires with a total area burned equal to just over 78km squared. This means the average fire was very small, and they often burned them selves out causing minimal danger to farms and farm animals. So a reasonable conclusion would be that there was little impact on livestock in Czechia over the 12 year period so there should not be any noticeable impact on the population reported by FAOSTAT or WOAH.</t>
+  </si>
+  <si>
+    <t>In 1993, Czechia split from Slovakia to become its own country. The split was referred to as the Velvet Divorce for how smooth it was  much more rough the  Czech economy than people give it credit. There was rampant inflation and Czechia only managed to get it below 9% in 1995. Given this uncertainty people were feeling in the economy and rapidly increasing prices of inputs for farming, the drop in 1994 for livestock population numbers is realistic.</t>
+  </si>
+  <si>
+    <t>In 1995, Czechia was reducing its inflation as well as joined the Organization for Economic Co-operation and Development (OECD). Joining the OECD allows a country to access better data and research, Networking and cooperative relationships, enhanced credibility, access to funding and technical assistance, and better trade and investment opportunities. So we would expect to see a increase in animal population numbers given the decrease in inflation that farmers were facing and the opportunity for better trade and collaboration from the OECD. FAOSTAT shows an increase in the chicken and pig population after this time which appears plausible given the economic conditions.</t>
+  </si>
+  <si>
+    <t>In 1995, Czechia was reducing its inflation as well as joined the Organization for Economic Co-operation and Development (OECD). Joining the OECD allows a country to access better data and research, Networking and cooperative relationships, enhanced credibility, access to funding and technical assistance, and better trade and investment opportunities. So we would expect to see a increase in animal population numbers given the decrease in inflation that farmers were facing and the opportunity for better trade and collaboration from the OECD. FAOSTAT shows and decrease in the cattle and sheep population after this time which appears implausible given the economic conditions. However, the decrease in the population numbers is part of a larger decreasing trend so there is mostly likely other external factors causing this.</t>
+  </si>
+  <si>
+    <t>In 2009 through 2010, Czechia entered a recession defined by a shrinking in their GDP. Given that people tend to cut back during recessions due to increased uncertainty in the market. As a result we should see reduce livestock population as consumers buy less meat as it's typically a more expensive grocery item. FAOSTAT shows a decrease in the pig population this year, but it occurred during a larger trend of decreasing pig population so it cannot be easily determined what impact the recession had on the pig population in Czechia.</t>
+  </si>
+  <si>
+    <t>Between 2014 and 2015 Czechia faced another recession as the GDP dropped even lower. As a result of this we should expect to see decreased in the cattle population. For these years, FAOSTAT reports a slight increase in the cattle population. It's small enough to be considered statistically insignificant so the population was stagnant these years.</t>
   </si>
 </sst>
 </file>
@@ -750,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491FA7C7-AD9D-3949-A859-ACF624196E45}">
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F133" sqref="A125:F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -845,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -868,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -891,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -914,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -937,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -960,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -983,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1006,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1029,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1052,7 +1049,7 @@
         <v>4.5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1076,7 +1073,7 @@
         <v>4.5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1099,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -1116,13 +1113,13 @@
         <v>2005</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
         <v>4.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -1145,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -1168,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -1191,7 +1188,7 @@
         <v>4.5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1214,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -1237,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1260,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1283,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -1306,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -1329,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -1352,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -1375,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -1398,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -1421,7 +1418,7 @@
         <v>1.5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1444,7 +1441,7 @@
         <v>1.5</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -1467,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -1484,13 +1481,13 @@
         <v>2019</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -1513,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -1530,13 +1527,13 @@
         <v>2006</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
@@ -1553,13 +1550,13 @@
         <v>2007</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
@@ -1576,13 +1573,13 @@
         <v>2008</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -1599,13 +1596,13 @@
         <v>2009</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1">
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -1622,13 +1619,13 @@
         <v>2010</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
@@ -1645,13 +1642,13 @@
         <v>2011</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
@@ -1668,13 +1665,13 @@
         <v>2012</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
@@ -1691,13 +1688,13 @@
         <v>2013</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -1714,13 +1711,13 @@
         <v>2014</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1">
         <v>4.5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -1737,13 +1734,13 @@
         <v>2015</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -1760,13 +1757,13 @@
         <v>2016</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -1783,13 +1780,13 @@
         <v>2017</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
@@ -1806,13 +1803,13 @@
         <v>2018</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -1829,13 +1826,13 @@
         <v>2019</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1">
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -1858,7 +1855,7 @@
         <v>4.5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -1881,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -1904,7 +1901,7 @@
         <v>4.5</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
@@ -1915,10 +1912,10 @@
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
@@ -1927,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
@@ -1938,19 +1935,19 @@
         <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E52" s="1">
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -1961,19 +1958,19 @@
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1">
         <v>2007</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E53" s="1">
         <v>5</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
@@ -1984,19 +1981,19 @@
         <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1">
         <v>2008</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E54" s="1">
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
@@ -2007,19 +2004,19 @@
         <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1">
         <v>2009</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E55" s="1">
         <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
@@ -2030,25 +2027,25 @@
         <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
         <v>2010</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E56" s="1">
         <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
       </c>
       <c r="T56" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -2056,19 +2053,19 @@
         <v>7</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1">
         <v>2011</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E57" s="1">
         <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
@@ -2079,19 +2076,19 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
         <v>2012</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -2102,19 +2099,19 @@
         <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C59" s="1">
         <v>2013</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
@@ -2125,19 +2122,19 @@
         <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1">
         <v>2014</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
@@ -2148,19 +2145,19 @@
         <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1">
         <v>2015</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
@@ -2171,19 +2168,19 @@
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1">
         <v>2016</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
@@ -2194,19 +2191,19 @@
         <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C63" s="1">
         <v>2017</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
@@ -2217,19 +2214,19 @@
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1">
         <v>2018</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
@@ -2240,19 +2237,19 @@
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C65" s="1">
         <v>2019</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
@@ -2263,22 +2260,22 @@
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E66" s="1">
         <v>5</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2286,22 +2283,22 @@
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C67" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2312,19 +2309,19 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E68" s="1">
         <v>5</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2338,16 +2335,16 @@
         <v>2002</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2367,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2390,10 +2387,10 @@
         <v>5</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2413,10 +2410,10 @@
         <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2436,10 +2433,10 @@
         <v>4.5</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2459,10 +2456,10 @@
         <v>5</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2482,10 +2479,10 @@
         <v>5</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2505,10 +2502,10 @@
         <v>5</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2528,10 +2525,10 @@
         <v>5</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2551,10 +2548,10 @@
         <v>5</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2574,10 +2571,10 @@
         <v>5</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2597,10 +2594,10 @@
         <v>5</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2620,10 +2617,10 @@
         <v>4.5</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2637,16 +2634,16 @@
         <v>2005</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E82" s="1">
         <v>5</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2666,10 +2663,10 @@
         <v>5</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2689,10 +2686,10 @@
         <v>5</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2712,10 +2709,10 @@
         <v>4.5</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2735,10 +2732,10 @@
         <v>5</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2758,10 +2755,10 @@
         <v>5</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2781,10 +2778,10 @@
         <v>5</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2804,10 +2801,10 @@
         <v>5</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2827,10 +2824,10 @@
         <v>5</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2850,10 +2847,10 @@
         <v>5</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2873,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2896,10 +2893,10 @@
         <v>4.5</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2919,10 +2916,10 @@
         <v>4.5</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2942,10 +2939,10 @@
         <v>5</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2959,16 +2956,16 @@
         <v>2019</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E96" s="1">
         <v>5</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2988,10 +2985,10 @@
         <v>5</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -3005,16 +3002,16 @@
         <v>2006</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E98" s="1">
         <v>4.5</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -3028,16 +3025,16 @@
         <v>2007</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E99" s="1">
         <v>5</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -3051,16 +3048,16 @@
         <v>2008</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E100" s="1">
         <v>4.5</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -3074,16 +3071,16 @@
         <v>2009</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E101" s="1">
         <v>5</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3097,16 +3094,16 @@
         <v>2010</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E102" s="1">
         <v>4.5</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -3120,16 +3117,16 @@
         <v>2011</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E103" s="1">
         <v>5</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3143,16 +3140,16 @@
         <v>2012</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E104" s="1">
         <v>4.5</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3166,16 +3163,16 @@
         <v>2013</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E105" s="1">
         <v>5</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3189,16 +3186,16 @@
         <v>2014</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E106" s="1">
         <v>4.5</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -3212,16 +3209,16 @@
         <v>2015</v>
       </c>
       <c r="D107" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E107" s="1">
         <v>5</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -3235,16 +3232,16 @@
         <v>2016</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E108" s="1">
         <v>5</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3258,16 +3255,16 @@
         <v>2017</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E109" s="1">
         <v>5</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3275,7 +3272,7 @@
         <v>7</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C110">
         <v>2015</v>
@@ -3287,10 +3284,10 @@
         <v>4.5</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3298,22 +3295,22 @@
         <v>7</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C111" s="1">
         <v>2015</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E111" s="1">
         <v>3.5</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3321,7 +3318,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C112" s="1">
         <v>2019</v>
@@ -3333,10 +3330,10 @@
         <v>5</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3344,22 +3341,22 @@
         <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C113" s="1">
         <v>2019</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -3367,7 +3364,7 @@
         <v>7</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C114" s="1">
         <v>2002</v>
@@ -3379,10 +3376,10 @@
         <v>5</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G114" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -3390,7 +3387,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C115" s="1">
         <v>2002</v>
@@ -3402,10 +3399,10 @@
         <v>5</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G115" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -3425,10 +3422,10 @@
         <v>5</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G116" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -3448,10 +3445,10 @@
         <v>5</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G117" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3471,10 +3468,10 @@
         <v>5</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G118" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -3482,7 +3479,7 @@
         <v>7</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C119" s="1">
         <v>1997</v>
@@ -3494,10 +3491,10 @@
         <v>5</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G119" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -3505,10 +3502,10 @@
         <v>7</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C120" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -3517,10 +3514,10 @@
         <v>5</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="G120" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3528,10 +3525,10 @@
         <v>7</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -3540,10 +3537,10 @@
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="G121" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3551,22 +3548,22 @@
         <v>7</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C122" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D122" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E122" s="1">
         <v>5</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G122" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -3574,7 +3571,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C123">
         <v>2003</v>
@@ -3586,10 +3583,10 @@
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3597,7 +3594,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C124">
         <v>2003</v>
@@ -3609,10 +3606,10 @@
         <v>2</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G124" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3620,22 +3617,22 @@
         <v>7</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D125" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E125" s="1">
         <v>5</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G125" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -3643,10 +3640,10 @@
         <v>7</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C126" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
@@ -3655,10 +3652,10 @@
         <v>5</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -3666,10 +3663,10 @@
         <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
@@ -3678,10 +3675,10 @@
         <v>5</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G127" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -3689,10 +3686,10 @@
         <v>7</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>9</v>
@@ -3701,10 +3698,10 @@
         <v>2</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G128" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -3715,7 +3712,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -3724,10 +3721,10 @@
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G129" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -3738,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -3747,10 +3744,10 @@
         <v>5</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G130" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -3761,7 +3758,7 @@
         <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -3770,10 +3767,10 @@
         <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G131" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -3781,10 +3778,10 @@
         <v>7</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C132" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -3793,10 +3790,10 @@
         <v>2</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G132" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -3807,7 +3804,7 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
@@ -3816,10 +3813,10 @@
         <v>3</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G133" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -3830,7 +3827,7 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -3839,10 +3836,10 @@
         <v>1</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G134" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -3853,7 +3850,7 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
@@ -3862,10 +3859,10 @@
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G135" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -3873,10 +3870,10 @@
         <v>7</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C136" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -3885,10 +3882,10 @@
         <v>2</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G136" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
